--- a/Models/transformer_to_transformer_architecture/analysis.xlsx
+++ b/Models/transformer_to_transformer_architecture/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didid\GitHub-Respository\AutomaticTextSummarization\Models\transformer_to_transformer_architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0A82AD-03A2-4D5C-A64F-5B464F006DBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF33ECD-D841-4301-A1E8-A0B8AE24E23A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="165" windowWidth="21405" windowHeight="15435" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -97,6 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,22 +340,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -671,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F7255D-F7D4-49BE-B381-76409DC043B4}">
   <dimension ref="B1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,9 +761,15 @@
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
+      <c r="H4" s="12">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0.1497</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">

--- a/Models/transformer_to_transformer_architecture/analysis.xlsx
+++ b/Models/transformer_to_transformer_architecture/analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didid\GitHub-Respository\AutomaticTextSummarization\Models\transformer_to_transformer_architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF33ECD-D841-4301-A1E8-A0B8AE24E23A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B60B7B-C124-4CAA-8B9E-03CCE3C04FB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
+    <workbookView xWindow="5580" yWindow="165" windowWidth="21405" windowHeight="15435" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -819,9 +819,15 @@
       <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
+      <c r="H6" s="14">
+        <v>0.13772999999999999</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.23014999999999999</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.15997</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Models/transformer_to_transformer_architecture/analysis.xlsx
+++ b/Models/transformer_to_transformer_architecture/analysis.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didid\GitHub-Respository\AutomaticTextSummarization\Models\transformer_to_transformer_architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B60B7B-C124-4CAA-8B9E-03CCE3C04FB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439A7126-AA4D-4BEE-B22F-08407079604D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="165" windowWidth="21405" windowHeight="15435" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5E92E8A-8577-4490-95F3-1F336C079EEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="TF2TF_ENG" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,31 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
-  <si>
-    <t>multilingual</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>bert</t>
-  </si>
-  <si>
-    <t>unilingual</t>
-  </si>
-  <si>
-    <t>huggingface</t>
-  </si>
-  <si>
-    <t>distilbert</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>german</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Language</t>
   </si>
@@ -69,28 +45,34 @@
     <t>Decoder</t>
   </si>
   <si>
-    <t>Version</t>
+    <t>Epoch</t>
   </si>
   <si>
-    <t>Trainer</t>
+    <t>Loss</t>
   </si>
   <si>
-    <t>Rouge-Precision</t>
+    <t>R-Precision</t>
   </si>
   <si>
-    <t>Rouge-Recall</t>
+    <t>R-Recall</t>
   </si>
   <si>
-    <t>Rouge-Measure</t>
+    <t>R-Measure</t>
   </si>
   <si>
-    <t>Tokenizer</t>
+    <t>English</t>
   </si>
   <si>
-    <t>distilbert-base-multilingual-cased</t>
+    <t>BERT (multilingual, cased)</t>
   </si>
   <si>
-    <t>bert-base-multilingual-cased</t>
+    <t>Corpus</t>
+  </si>
+  <si>
+    <t>CNN/ Dailymail</t>
+  </si>
+  <si>
+    <t>Metadata</t>
   </si>
 </sst>
 </file>
@@ -98,9 +80,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +98,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -126,12 +116,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -155,207 +145,82 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -364,6 +229,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA74343"/>
+      <color rgb="FF21835E"/>
+      <color rgb="FF325D72"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -373,6 +245,2039 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TF2TF_ENG!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="21835E"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="21835E"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="21835E"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>TF2TF_ENG!$C$3:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>4.2798999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9832999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7547999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6191</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5605000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5196000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3849</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3592</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.339</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2902999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC43-493C-B8BF-E2C0F85E95E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="530566160"/>
+        <c:axId val="530567800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="530566160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530567800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="530567800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530566160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Scores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TF2TF_ENG!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R-Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="21835E"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>TF2TF_ENG!$D$3:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.83E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2100000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1200000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1084</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1065</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1074</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16F9-4AFA-8DD6-4822C4A01C0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TF2TF_ENG!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R-Recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="325D72"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>TF2TF_ENG!$E$3:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>4.41E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1628</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1517</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-16F9-4AFA-8DD6-4822C4A01C0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TF2TF_ENG!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R-Measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="A74343"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>TF2TF_ENG!$F$3:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>3.4700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7100000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1195</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1202</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1226</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12180000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-16F9-4AFA-8DD6-4822C4A01C0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="533795144"/>
+        <c:axId val="533794816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="533795144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533794816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="533794816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533795144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2ED9C0D-1931-4156-B2A5-8DE52A00B85A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F45411A6-AFA8-4AD6-825E-9F02252EDAB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -672,7 +2577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F7255D-F7D4-49BE-B381-76409DC043B4}">
-  <dimension ref="B1:J6"/>
+  <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -680,157 +2585,454 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4.2798999999999996</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.41E-2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3.5564</v>
+      </c>
+      <c r="D4" s="8">
+        <v>6.83E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2.9832999999999998</v>
+      </c>
+      <c r="D5" s="8">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1295</v>
+      </c>
+      <c r="F5" s="10">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2.8570000000000002</v>
+      </c>
+      <c r="D6" s="8">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1343</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.1053</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2.7547999999999999</v>
+      </c>
+      <c r="D7" s="8">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.1119</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2.673</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.1173</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2.6191</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.1195</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2.5605000000000002</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.1041</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.1202</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.10342</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.15958</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0.12221</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="12">
-        <v>9.8500000000000004E-2</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0.1497</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="12">
-        <v>8.7660000000000002E-2</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.13397999999999999</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0.10349</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.13772999999999999</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0.23014999999999999</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0.15997</v>
-      </c>
+      <c r="C11" s="8">
+        <v>2.5196000000000001</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.1084</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.12429999999999999</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2.3849</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.1188</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>1.23</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2.3592</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.1065</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.16270000000000001</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.12470000000000001</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="6">
+        <v>1.34</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2.339</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.10829999999999999</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.15740000000000001</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.124</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>1.45</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2.3340000000000001</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.1074</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.1226</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="6">
+        <v>1.56</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2.3224</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.1628</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2.2902999999999998</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.1076</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.1517</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>